--- a/Timesheet/Gengchao Yang/MCI-Timesheet.xlsx
+++ b/Timesheet/Gengchao Yang/MCI-Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uao365-my.sharepoint.com/personal/a1899237_adelaide_edu_au/Documents/MCI/Year2/MCI_Project/docs/Timesheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoA\MCI_Project\LY1\Timesheet\Gengchao Yang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="11_B13B0D271225AF2CA349E01F9A5C0D2ADA23491D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E00F80-579A-4372-BC82-DDBA8E041E55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDFC4C5-7E04-421F-AFD3-24ACDC0E23A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="2" r:id="rId1"/>
@@ -293,10 +293,10 @@
     <t>Gained comprehensive insights into various BCI applications, including healthcare, education, gaming, and assistive technology. Identified promising use cases and methodologies that can inform our approach. Next action is to narrow down specific strategies suitable for our project's objectives.</t>
   </si>
   <si>
-    <t>Read Emotiv official API documentation. Apply for Emotiv Developer Secret Key, App_Name, App_ID, Client_ID for later use. Brainstorming on the name of our product and decide an ear-catching product name with group members. Write backend Architecture.</t>
-  </si>
-  <si>
-    <t>Successfully get and ducumented the Cortex Client secret key, App_Name, App_ID, Client_ID. The product name will called "NeuroFlip Reader". Provisionaly, we decide to use Python Flask Framework as Backend development language, React as Front End development language. we use WebSocket to connect backend and frontend. We use Cortex API service to communicate with Emotiv Headset. We will use SQLite to store user profile and credentials locally.</t>
+    <t>Read Emotiv official API documentation. Apply for Emotiv Developer Secret Key, App_Name, App_ID, Client_ID for later use. Brainstorming on the name of our product and decide an ear-catching product name with group members. Write backend Architecture. Study how to rename my name on githb as contributors, and rename my name on github for the past commit record.</t>
+  </si>
+  <si>
+    <t>Successfully get and ducumented the Cortex Client secret key, App_Name, App_ID, Client_ID. The product name will called "NeuroFlip Reader". Provisionaly, we decide to use Python Flask Framework as Backend development language, React as Front End development language. we use WebSocket to connect backend and frontend. We use Cortex API service to communicate with Emotiv Headset. We will use SQLite to store user profile and credentials locally. Successfully setup the github contributor's name and email as the Uni id and Uni email.</t>
   </si>
 </sst>
 </file>
@@ -491,11 +491,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,10 +513,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,16 +858,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1198,7 +1194,7 @@
       <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="D10" s="12">
@@ -1376,7 +1372,7 @@
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1392,16 +1388,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1868,8 +1864,8 @@
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1884,16 +1880,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -2374,16 +2370,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -2853,16 +2849,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">

--- a/Timesheet/Gengchao Yang/MCI-Timesheet.xlsx
+++ b/Timesheet/Gengchao Yang/MCI-Timesheet.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoA\MCI_Project\LY1\Timesheet\Gengchao Yang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDFC4C5-7E04-421F-AFD3-24ACDC0E23A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B6D16-7224-4F40-BAB3-D24353E6AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="2" r:id="rId1"/>
     <sheet name="Week2(unfinished)" sheetId="10" r:id="rId2"/>
     <sheet name="Week3(unfinished)" sheetId="8" r:id="rId3"/>
-    <sheet name="Week4 Plan" sheetId="5" r:id="rId4"/>
-    <sheet name="Template" sheetId="4" r:id="rId5"/>
+    <sheet name="Week4" sheetId="11" r:id="rId4"/>
+    <sheet name="Week4 Plan" sheetId="5" r:id="rId5"/>
+    <sheet name="Template" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Template!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Template!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week1!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week2(unfinished)'!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week3(unfinished)'!$A$1:$H$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week4 Plan'!$A$1:$H$12</definedName>
-    <definedName name="Week_Start" localSheetId="4">Template!$C$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Week4!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week4 Plan'!$A$1:$H$12</definedName>
+    <definedName name="Week_Start" localSheetId="5">Template!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="0">Week1!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="1">'Week2(unfinished)'!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="2">'Week3(unfinished)'!$C$4</definedName>
-    <definedName name="Week_Start" localSheetId="3">'Week4 Plan'!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="3">Week4!$C$4</definedName>
+    <definedName name="Week_Start" localSheetId="4">'Week4 Plan'!$C$4</definedName>
     <definedName name="Week_Start">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="83">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -263,9 +266,6 @@
     <t>16th March</t>
   </si>
   <si>
-    <t>Group Meeting to disscuss task Allocation for the Pitch presentation. Go through User Story and all the use cases. Disscuss the format of the presentation.  We discuss about the Q&amp;A session in the Pitch presentation. To discuss the functionalities,  user story, and use case of the final product we shall deliver for our next milestone.</t>
-  </si>
-  <si>
     <t>We have our tasks divided into several parts based on the structure of the presentation we have came up.  We have discussed and confirmed the final product we are going to deliver will be a Brain-controlled Text Reader. We have disscussed and confirmed that the milestone one for this project will be a Minimum Viable Product (MVP) version of this Brain-controlled Text Reader. The functionalities of this product will include 1. EEG Device Wearing and Adjustment Guideline 2. Mind-Controlled Instructions Training 3. Book page control by Mind-Controlled Instructions. We have discussed and confirmed the parts allocation of the Pitch Presentation: 1. (Guanhua's part) Intro/Background, Storyline, and Motivation. 2.  (Yufei's part) Introduction about our BCI solution (Brain-controlled Text Reader) to the existing problems. 3.(Zebang's part) Software Architecture. 4. (Gengchao's part) Flowchart with timeline and milestone, intro about Agile 5. (Haomin's part) Team member allocation, roles played. Future Development. We have confirmed that the Q&amp;A session will be hold on another meeting with our client/supervisor with one question for each member.</t>
   </si>
   <si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>Successfully get and ducumented the Cortex Client secret key, App_Name, App_ID, Client_ID. The product name will called "NeuroFlip Reader". Provisionaly, we decide to use Python Flask Framework as Backend development language, React as Front End development language. we use WebSocket to connect backend and frontend. We use Cortex API service to communicate with Emotiv Headset. We will use SQLite to store user profile and credentials locally. Successfully setup the github contributor's name and email as the Uni id and Uni email.</t>
+  </si>
+  <si>
+    <t>Group Meeting to disscuss task Allocation for the Pitch presentation. Go through User Story and all the use cases. Disscuss the format of the presentation.  We discuss about the Q&amp;A session in the Pitch presentation. To discuss the functionalities of our product. To discuss and revise user story1, and use case 1-3 of the final product.</t>
+  </si>
+  <si>
+    <t>Drafting Pitch presentation slides and prepare for the pitch presentation. Having group meeting. Add and update the information on GitHub Project management tool. Study how to write and use python package and module.</t>
+  </si>
+  <si>
+    <t>I've completed 50% of my assigned slide edits for the pitch presentation. Project Backlogs on GitHub project management tool has benn updated and new information has been added. Understand how Python package and module works, and how to build a new package. In today's meeting, we have went through each member's assigned part of the pitch presentation, we have confirmed that we will complete ourselves slide by Wednesday (26th March) so that we have time to revise our slide and presentation before the deadline.</t>
   </si>
 </sst>
 </file>
@@ -1205,13 +1214,13 @@
         <v>1.5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1273,13 +1282,13 @@
         <v>5.9999999999999982</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1864,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2191,11 +2200,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2253,11 +2262,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2315,11 +2324,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2348,14 +2357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE63D51-2B5B-487A-AABC-09E6322B3D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80C0069-E88C-4F3D-A378-767E85F80CDC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AW13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2427,7 +2436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" s="10" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2441,10 +2450,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2816,6 +2827,485 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{7445B382-B64C-468B-8A68-4E2D0D84546A}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE63D51-2B5B-487A-AABC-09E6322B3D2A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="16">
+        <f>(D6-C6)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+    </row>
+    <row r="7" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="16">
+        <f>(D7-C7)*24</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+    </row>
+    <row r="8" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ref="E8:E12" si="0">(D8-C8)*24</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+    </row>
+    <row r="9" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+    </row>
+    <row r="10" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+    </row>
+    <row r="11" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+    </row>
+    <row r="12" spans="1:49" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:49" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>5.0000000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
     <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{923BA7E2-E2D4-4B31-90E1-FFE0BD76C0A7}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
@@ -2826,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA9730B-2079-4FD2-8ABB-F3697036C908}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
